--- a/2.Personal Financial Project/Raw Input/Calender_Table.xlsx
+++ b/2.Personal Financial Project/Raw Input/Calender_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\4.Data Analyst\Power BI\Power-BI Sample Projects-On GIT\2.Personal Financial Project\Raw Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92AECF4-1E0B-43EE-B6FA-11456ABEF290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F442A403-9356-40C3-AD18-BBDD4D4C88C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0B83F7F0-C47D-4FB4-A660-89FA22E28BDE}"/>
   </bookViews>
@@ -138,7 +138,7 @@
     <t>Jan-21</t>
   </si>
   <si>
-    <t>Month</t>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -211,7 +211,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E3526D74-118E-4E29-B00B-3B2EFBC36585}" name="FinData" displayName="FinData" ref="A1:A38" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A1:A38" xr:uid="{AF52FF37-9A77-4B81-89B3-F325D7A2208A}"/>
   <tableColumns count="1">
-    <tableColumn id="3" xr3:uid="{F0927546-DCCD-45F0-AF41-EF513053CFA2}" name="Month" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{F0927546-DCCD-45F0-AF41-EF513053CFA2}" name="Date" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -517,7 +517,7 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
